--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DemoA" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -353,19 +359,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
